--- a/Simulation/simlog.xlsx
+++ b/Simulation/simlog.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Project\new_repo\Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B90B4A-BB73-43F4-97A7-F4DC01A268EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F86699-B2AB-4A41-BEE5-CEBEB6483CDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE6E22E2-3983-41FF-A435-F2A1027C371D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DE6E22E2-3983-41FF-A435-F2A1027C371D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="15">
   <si>
     <t>idx</t>
   </si>
@@ -70,6 +71,15 @@
   </si>
   <si>
     <t>intel i7-7500 2.7GHz</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>CNN Accelerator</t>
+  </si>
+  <si>
+    <t>Intel i7-7500</t>
   </si>
 </sst>
 </file>
@@ -179,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,6 +215,21 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -213,6 +238,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -229,6 +263,6485 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>98.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64A5-48FA-8400-2D76141D26E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>98.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-64A5-48FA-8400-2D76141D26E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$3:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>98.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-64A5-48FA-8400-2D76141D26E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="510149935"/>
+        <c:axId val="510162831"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="510149935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510162831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="510162831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510149935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>77.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C02-403E-A90A-B21A2B1E1190}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3087.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3098.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3089.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3090.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3092.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3091.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3090.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3094.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3080.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3092.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C02-403E-A90A-B21A2B1E1190}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>21.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C02-403E-A90A-B21A2B1E1190}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="395740543"/>
+        <c:axId val="395741791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="395740543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395741791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="395741791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395740543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Certainty</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E6D-4FF9-9878-4D029243D43C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>98.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E6D-4FF9-9878-4D029243D43C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$3:$X$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>98.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8E6D-4FF9-9878-4D029243D43C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="514871695"/>
+        <c:axId val="514883343"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="514871695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514883343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514883343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514871695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Processing time (us)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>77.057999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8335-45D6-9C70-EA422891448A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3090.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8335-45D6-9C70-EA422891448A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>167.49700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8335-45D6-9C70-EA422891448A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="404416192"/>
+        <c:axId val="404401632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="404416192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="404401632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404401632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404416192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Image</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t> Processing Time (usec)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32529252663022584"/>
+          <c:y val="5.2980120171705648E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24594863821567256"/>
+          <c:y val="0.26145712480642325"/>
+          <c:w val="0.71039531189315663"/>
+          <c:h val="0.601982096149416"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>arm cortex A9 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>77.057999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60F2-493C-BD04-A34570B3D16C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>167.49700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-60F2-493C-BD04-A34570B3D16C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AA$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3090.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-60F2-493C-BD04-A34570B3D16C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:overlap val="-20"/>
+        <c:axId val="404440320"/>
+        <c:axId val="404427840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="404440320"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="404427840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404427840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404440320"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy Per Image Index</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN Accelerator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$4:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>98.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6FF-4A93-8EEF-E5DA7BD18569}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel i7-7500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$O$4:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>98.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F6FF-4A93-8EEF-E5DA7BD18569}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1662125376"/>
+        <c:axId val="1662130784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1662125376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1662130784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1662130784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1662125376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68086C6F-30AC-4A14-B3DB-A566726EEDEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>242886</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE6946D-38CA-489C-BD89-F45FE0770BC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF59D6D-D75A-48BC-9346-A90324E5582B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EF3330-2D07-42C8-BD93-BD9831123336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64E6E57-A135-4AB0-94D3-30045DC1282E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9536907" y="3167062"/>
+          <a:ext cx="6265068" cy="2157413"/>
+          <a:chOff x="6172201" y="3281362"/>
+          <a:chExt cx="6291261" cy="2157413"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="Chart 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD2662C-72B4-42BF-B42F-43235E692D4B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="6191250" y="3281362"/>
+          <a:ext cx="6272212" cy="2157413"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A8E1C9-7501-4073-B397-FB15DF3E63B7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6591300" y="4105275"/>
+            <a:ext cx="1314449" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Zynq-7000 FPGA</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504AD611-CCAC-4BA4-A3A5-0AC75AE2916C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6372225" y="4362450"/>
+            <a:ext cx="1514475" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Intel i7-7500 2.7GHz</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11DBA06C-6BF5-4935-B7AA-22C8EDD52E37}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6172201" y="4610100"/>
+            <a:ext cx="1619250" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ARM Cortex-A9</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 0.67GHz</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577452</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>291702</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47029</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A50420F-DC3D-42B6-84BB-AD1C91259F2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,45 +7041,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C88C4D-1E47-442E-BEC1-49748A351DF7}">
-  <dimension ref="B1:Z12"/>
+  <dimension ref="B1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -1413,6 +7926,107 @@
       </c>
       <c r="Z12" s="8">
         <v>166.24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12">
+        <f>AVERAGE(C3:C12)</f>
+        <v>960.7</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" ref="D13:K13" si="0">AVERAGE(D3:D12)</f>
+        <v>27.7</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>96.021000000000001</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>98.826000000000008</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
+        <v>97.108000000000004</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="0"/>
+        <v>23.603000000000002</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="0"/>
+        <v>77.057999999999993</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="0"/>
+        <v>960.8</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" ref="L13" si="1">AVERAGE(L3:L12)</f>
+        <v>27.7</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" ref="M13" si="2">AVERAGE(M3:M12)</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" ref="N13" si="3">AVERAGE(N3:N12)</f>
+        <v>96.029000000000011</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" ref="O13" si="4">AVERAGE(O3:O12)</f>
+        <v>98.835999999999999</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" ref="P13" si="5">AVERAGE(P3:P12)</f>
+        <v>97.146000000000001</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" ref="Q13" si="6">AVERAGE(Q3:Q12)</f>
+        <v>23.438999999999997</v>
+      </c>
+      <c r="R13" s="11">
+        <f t="shared" ref="R13:S13" si="7">AVERAGE(R3:R12)</f>
+        <v>3090.98</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="7"/>
+        <v>960.8</v>
+      </c>
+      <c r="T13" s="10">
+        <f t="shared" ref="T13" si="8">AVERAGE(T3:T12)</f>
+        <v>27.7</v>
+      </c>
+      <c r="U13" s="10">
+        <f t="shared" ref="U13" si="9">AVERAGE(U3:U12)</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="V13" s="10">
+        <f t="shared" ref="V13" si="10">AVERAGE(V3:V12)</f>
+        <v>96.029000000000011</v>
+      </c>
+      <c r="W13" s="10">
+        <f t="shared" ref="W13" si="11">AVERAGE(W3:W12)</f>
+        <v>98.835999999999999</v>
+      </c>
+      <c r="X13" s="10">
+        <f t="shared" ref="X13" si="12">AVERAGE(X3:X12)</f>
+        <v>97.146000000000001</v>
+      </c>
+      <c r="Y13" s="10">
+        <f t="shared" ref="Y13" si="13">AVERAGE(Y3:Y12)</f>
+        <v>23.438999999999997</v>
+      </c>
+      <c r="Z13" s="10">
+        <f t="shared" ref="Z13" si="14">AVERAGE(Z3:Z12)</f>
+        <v>167.49700000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1423,5 +8037,1007 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D05EF-20F5-4CAD-ABE6-17D5A02C5D6F}">
+  <dimension ref="C2:AA14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+    </row>
+    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>963</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1">
+        <v>98.26</v>
+      </c>
+      <c r="H4" s="1">
+        <v>99.48</v>
+      </c>
+      <c r="I4" s="1">
+        <v>98.6</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20.99</v>
+      </c>
+      <c r="K4" s="1">
+        <v>77.12</v>
+      </c>
+      <c r="L4" s="8">
+        <v>963</v>
+      </c>
+      <c r="M4" s="8">
+        <v>12</v>
+      </c>
+      <c r="N4" s="8">
+        <v>17</v>
+      </c>
+      <c r="O4" s="8">
+        <v>98.26</v>
+      </c>
+      <c r="P4" s="8">
+        <v>99.48</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>98.64</v>
+      </c>
+      <c r="R4" s="8">
+        <v>21.48</v>
+      </c>
+      <c r="S4" s="8">
+        <v>168.97</v>
+      </c>
+      <c r="T4" s="5">
+        <v>963</v>
+      </c>
+      <c r="U4" s="5">
+        <v>12</v>
+      </c>
+      <c r="V4" s="5">
+        <v>17</v>
+      </c>
+      <c r="W4" s="5">
+        <v>98.26</v>
+      </c>
+      <c r="X4" s="5">
+        <v>99.48</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>98.64</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>21.48</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>3087.3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1112</v>
+      </c>
+      <c r="E5" s="1">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1">
+        <v>97.97</v>
+      </c>
+      <c r="H5" s="1">
+        <v>99.38</v>
+      </c>
+      <c r="I5" s="1">
+        <v>98.45</v>
+      </c>
+      <c r="J5" s="1">
+        <v>27.76</v>
+      </c>
+      <c r="K5" s="1">
+        <v>76.77</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1112</v>
+      </c>
+      <c r="M5" s="8">
+        <v>16</v>
+      </c>
+      <c r="N5" s="8">
+        <v>23</v>
+      </c>
+      <c r="O5" s="8">
+        <v>97.97</v>
+      </c>
+      <c r="P5" s="8">
+        <v>99.38</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>98.46</v>
+      </c>
+      <c r="R5" s="8">
+        <v>27.25</v>
+      </c>
+      <c r="S5" s="8">
+        <v>166.1</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1112</v>
+      </c>
+      <c r="U5" s="5">
+        <v>16</v>
+      </c>
+      <c r="V5" s="5">
+        <v>23</v>
+      </c>
+      <c r="W5" s="5">
+        <v>97.97</v>
+      </c>
+      <c r="X5" s="5">
+        <v>99.38</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>98.46</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>27.25</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>3098.58</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>993</v>
+      </c>
+      <c r="E6" s="1">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1">
+        <v>96.22</v>
+      </c>
+      <c r="H6" s="1">
+        <v>98.64</v>
+      </c>
+      <c r="I6" s="1">
+        <v>96.97</v>
+      </c>
+      <c r="J6" s="1">
+        <v>21.46</v>
+      </c>
+      <c r="K6" s="1">
+        <v>77.06</v>
+      </c>
+      <c r="L6" s="8">
+        <v>994</v>
+      </c>
+      <c r="M6" s="8">
+        <v>24</v>
+      </c>
+      <c r="N6" s="8">
+        <v>38</v>
+      </c>
+      <c r="O6" s="8">
+        <v>96.31</v>
+      </c>
+      <c r="P6" s="8">
+        <v>98.64</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>97.04</v>
+      </c>
+      <c r="R6" s="8">
+        <v>20.88</v>
+      </c>
+      <c r="S6" s="8">
+        <v>169.87</v>
+      </c>
+      <c r="T6" s="5">
+        <v>994</v>
+      </c>
+      <c r="U6" s="5">
+        <v>24</v>
+      </c>
+      <c r="V6" s="5">
+        <v>38</v>
+      </c>
+      <c r="W6" s="5">
+        <v>96.31</v>
+      </c>
+      <c r="X6" s="5">
+        <v>98.64</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>97.04</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>20.88</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>3089.88</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>950</v>
+      </c>
+      <c r="E7" s="1">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1">
+        <v>94.05</v>
+      </c>
+      <c r="H7" s="1">
+        <v>98.81</v>
+      </c>
+      <c r="I7" s="1">
+        <v>95.9</v>
+      </c>
+      <c r="J7" s="1">
+        <v>21.83</v>
+      </c>
+      <c r="K7" s="1">
+        <v>77.13</v>
+      </c>
+      <c r="L7" s="8">
+        <v>950</v>
+      </c>
+      <c r="M7" s="8">
+        <v>47</v>
+      </c>
+      <c r="N7" s="8">
+        <v>59</v>
+      </c>
+      <c r="O7" s="8">
+        <v>94.15</v>
+      </c>
+      <c r="P7" s="8">
+        <v>98.81</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>95.91</v>
+      </c>
+      <c r="R7" s="8">
+        <v>21.13</v>
+      </c>
+      <c r="S7" s="8">
+        <v>168.42</v>
+      </c>
+      <c r="T7" s="5">
+        <v>951</v>
+      </c>
+      <c r="U7" s="5">
+        <v>47</v>
+      </c>
+      <c r="V7" s="5">
+        <v>59</v>
+      </c>
+      <c r="W7" s="5">
+        <v>94.15</v>
+      </c>
+      <c r="X7" s="5">
+        <v>98.81</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>95.91</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>21.13</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>3090.56</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>938</v>
+      </c>
+      <c r="E8" s="1">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1">
+        <v>95.51</v>
+      </c>
+      <c r="H8" s="1">
+        <v>98.98</v>
+      </c>
+      <c r="I8" s="1">
+        <v>96.1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>23.54</v>
+      </c>
+      <c r="K8" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L8" s="8">
+        <v>938</v>
+      </c>
+      <c r="M8" s="8">
+        <v>32</v>
+      </c>
+      <c r="N8" s="8">
+        <v>42</v>
+      </c>
+      <c r="O8" s="8">
+        <v>95.72</v>
+      </c>
+      <c r="P8" s="8">
+        <v>98.98</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>96.12</v>
+      </c>
+      <c r="R8" s="8">
+        <v>22.64</v>
+      </c>
+      <c r="S8" s="8">
+        <v>167.45</v>
+      </c>
+      <c r="T8" s="5">
+        <v>940</v>
+      </c>
+      <c r="U8" s="5">
+        <v>32</v>
+      </c>
+      <c r="V8" s="5">
+        <v>42</v>
+      </c>
+      <c r="W8" s="5">
+        <v>95.72</v>
+      </c>
+      <c r="X8" s="5">
+        <v>98.98</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>96.12</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>22.64</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>3092.91</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>838</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1">
+        <v>93.94</v>
+      </c>
+      <c r="H9" s="1">
+        <v>98.65</v>
+      </c>
+      <c r="I9" s="1">
+        <v>96.73</v>
+      </c>
+      <c r="J9" s="1">
+        <v>24.16</v>
+      </c>
+      <c r="K9" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L9" s="8">
+        <v>838</v>
+      </c>
+      <c r="M9" s="8">
+        <v>44</v>
+      </c>
+      <c r="N9" s="8">
+        <v>56</v>
+      </c>
+      <c r="O9" s="8">
+        <v>93.72</v>
+      </c>
+      <c r="P9" s="8">
+        <v>98.65</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>96.88</v>
+      </c>
+      <c r="R9" s="8">
+        <v>24.79</v>
+      </c>
+      <c r="S9" s="8">
+        <v>165.39</v>
+      </c>
+      <c r="T9" s="5">
+        <v>836</v>
+      </c>
+      <c r="U9" s="5">
+        <v>44</v>
+      </c>
+      <c r="V9" s="5">
+        <v>56</v>
+      </c>
+      <c r="W9" s="5">
+        <v>93.72</v>
+      </c>
+      <c r="X9" s="5">
+        <v>98.65</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>96.88</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>24.79</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>3091.95</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>932</v>
+      </c>
+      <c r="E10" s="1">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1">
+        <v>97.28</v>
+      </c>
+      <c r="H10" s="1">
+        <v>98.85</v>
+      </c>
+      <c r="I10" s="1">
+        <v>98.21</v>
+      </c>
+      <c r="J10" s="1">
+        <v>26.77</v>
+      </c>
+      <c r="K10" s="1">
+        <v>77.06</v>
+      </c>
+      <c r="L10" s="8">
+        <v>932</v>
+      </c>
+      <c r="M10" s="8">
+        <v>15</v>
+      </c>
+      <c r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8">
+        <v>97.28</v>
+      </c>
+      <c r="P10" s="8">
+        <v>98.85</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>98.18</v>
+      </c>
+      <c r="R10" s="8">
+        <v>25.92</v>
+      </c>
+      <c r="S10" s="8">
+        <v>167.38</v>
+      </c>
+      <c r="T10" s="5">
+        <v>932</v>
+      </c>
+      <c r="U10" s="5">
+        <v>15</v>
+      </c>
+      <c r="V10" s="5">
+        <v>26</v>
+      </c>
+      <c r="W10" s="5">
+        <v>97.28</v>
+      </c>
+      <c r="X10" s="5">
+        <v>98.85</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>98.18</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>25.92</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>3090.8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>996</v>
+      </c>
+      <c r="E11" s="1">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1">
+        <v>96.88</v>
+      </c>
+      <c r="H11" s="1">
+        <v>99.12</v>
+      </c>
+      <c r="I11" s="1">
+        <v>98.14</v>
+      </c>
+      <c r="J11" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>77.209999999999994</v>
+      </c>
+      <c r="L11" s="8">
+        <v>996</v>
+      </c>
+      <c r="M11" s="8">
+        <v>24</v>
+      </c>
+      <c r="N11" s="8">
+        <v>33</v>
+      </c>
+      <c r="O11" s="8">
+        <v>96.78</v>
+      </c>
+      <c r="P11" s="8">
+        <v>99.12</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>98.22</v>
+      </c>
+      <c r="R11" s="8">
+        <v>24.32</v>
+      </c>
+      <c r="S11" s="8">
+        <v>166.17</v>
+      </c>
+      <c r="T11" s="5">
+        <v>995</v>
+      </c>
+      <c r="U11" s="5">
+        <v>24</v>
+      </c>
+      <c r="V11" s="5">
+        <v>33</v>
+      </c>
+      <c r="W11" s="5">
+        <v>96.78</v>
+      </c>
+      <c r="X11" s="5">
+        <v>99.12</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>98.22</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>24.32</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>3094.32</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>925</v>
+      </c>
+      <c r="E12" s="1">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1">
+        <v>94.96</v>
+      </c>
+      <c r="H12" s="1">
+        <v>97.94</v>
+      </c>
+      <c r="I12" s="1">
+        <v>95.26</v>
+      </c>
+      <c r="J12" s="1">
+        <v>24.94</v>
+      </c>
+      <c r="K12" s="1">
+        <v>76.97</v>
+      </c>
+      <c r="L12" s="8">
+        <v>925</v>
+      </c>
+      <c r="M12" s="8">
+        <v>30</v>
+      </c>
+      <c r="N12" s="8">
+        <v>49</v>
+      </c>
+      <c r="O12" s="8">
+        <v>94.96</v>
+      </c>
+      <c r="P12" s="8">
+        <v>98.04</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>95.27</v>
+      </c>
+      <c r="R12" s="8">
+        <v>24.64</v>
+      </c>
+      <c r="S12" s="8">
+        <v>168.98</v>
+      </c>
+      <c r="T12" s="5">
+        <v>925</v>
+      </c>
+      <c r="U12" s="5">
+        <v>30</v>
+      </c>
+      <c r="V12" s="5">
+        <v>49</v>
+      </c>
+      <c r="W12" s="5">
+        <v>94.96</v>
+      </c>
+      <c r="X12" s="5">
+        <v>98.04</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>95.27</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>24.64</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>3080.66</v>
+      </c>
+    </row>
+    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>960</v>
+      </c>
+      <c r="E13" s="1">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1">
+        <v>95.14</v>
+      </c>
+      <c r="H13" s="1">
+        <v>98.41</v>
+      </c>
+      <c r="I13" s="1">
+        <v>96.72</v>
+      </c>
+      <c r="J13" s="1">
+        <v>21.38</v>
+      </c>
+      <c r="K13" s="1">
+        <v>77.06</v>
+      </c>
+      <c r="L13" s="8">
+        <v>960</v>
+      </c>
+      <c r="M13" s="8">
+        <v>33</v>
+      </c>
+      <c r="N13" s="8">
+        <v>49</v>
+      </c>
+      <c r="O13" s="8">
+        <v>95.14</v>
+      </c>
+      <c r="P13" s="8">
+        <v>98.41</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>96.74</v>
+      </c>
+      <c r="R13" s="8">
+        <v>21.34</v>
+      </c>
+      <c r="S13" s="8">
+        <v>166.24</v>
+      </c>
+      <c r="T13" s="5">
+        <v>960</v>
+      </c>
+      <c r="U13" s="5">
+        <v>33</v>
+      </c>
+      <c r="V13" s="5">
+        <v>49</v>
+      </c>
+      <c r="W13" s="5">
+        <v>95.14</v>
+      </c>
+      <c r="X13" s="5">
+        <v>98.41</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>96.74</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>21.34</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>3092.84</v>
+      </c>
+    </row>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12">
+        <f>AVERAGE(D4:D13)</f>
+        <v>960.7</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" ref="E14:K14" si="0">AVERAGE(E4:E13)</f>
+        <v>27.7</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="0"/>
+        <v>96.021000000000001</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="0"/>
+        <v>98.826000000000008</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="0"/>
+        <v>97.108000000000004</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="0"/>
+        <v>23.603000000000002</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" si="0"/>
+        <v>77.057999999999993</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" ref="L14:AA14" si="1">AVERAGE(L4:L13)</f>
+        <v>960.8</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="1"/>
+        <v>27.7</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="1"/>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="1"/>
+        <v>96.029000000000011</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="1"/>
+        <v>98.835999999999999</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="1"/>
+        <v>97.146000000000001</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="1"/>
+        <v>23.438999999999997</v>
+      </c>
+      <c r="S14" s="18">
+        <f t="shared" si="1"/>
+        <v>167.49700000000001</v>
+      </c>
+      <c r="T14" s="11">
+        <f t="shared" si="1"/>
+        <v>960.8</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="1"/>
+        <v>27.7</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" si="1"/>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" si="1"/>
+        <v>96.029000000000011</v>
+      </c>
+      <c r="X14" s="11">
+        <f t="shared" si="1"/>
+        <v>98.835999999999999</v>
+      </c>
+      <c r="Y14" s="11">
+        <f t="shared" si="1"/>
+        <v>97.146000000000001</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="1"/>
+        <v>23.438999999999997</v>
+      </c>
+      <c r="AA14" s="17">
+        <f t="shared" si="1"/>
+        <v>3090.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="L2:S2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>